--- a/TestFiles/poria/words/word_6.xlsx
+++ b/TestFiles/poria/words/word_6.xlsx
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4167085000000004</v>
+        <v>0.4167084999999986</v>
       </c>
       <c r="B2">
-        <v>0.5357888999999982</v>
+        <v>0.5357888999999965</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -399,10 +399,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7400618000000012</v>
+        <v>0.7400617999999994</v>
       </c>
       <c r="B3">
-        <v>0.8115188</v>
+        <v>0.8115187999999982</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.091606000000001</v>
+        <v>1.091605999999999</v>
       </c>
       <c r="B4">
-        <v>1.191706899999998</v>
+        <v>1.191706899999996</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.4114339</v>
+        <v>1.411433899999999</v>
       </c>
       <c r="B5">
-        <v>1.507667199999998</v>
+        <v>1.507667199999997</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.771733199999998</v>
+        <v>1.771733199999996</v>
       </c>
       <c r="B6">
-        <v>1.867599499999999</v>
+        <v>1.867599499999997</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
